--- a/Data/Transitions/19331974Translation.xlsx
+++ b/Data/Transitions/19331974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="804">
   <si>
     <t>id</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Rel</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7512315030382182e-06, 166.0: 0.0012804097311139564, 893.0: 2.695599433924119e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9810626254491548, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7174174533209238e-06, 166.0: 0.0012804097311139564, 893.0: 2.8870568908995634e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9810626254491548, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -43,7 +43,7 @@
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9954002939561898, 178.0: 0.0001615647287706849, 623.0: 0.0007590363687327968, 696.0: 0.002902511791869661}</t>
+    <t>{14.0: 0.9954002939561898, 178.0: 0.00016254087099219297, 623.0: 0.0007610093990490748, 696.0: 0.0029812321615992374}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -58,7 +58,7 @@
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.00025028495136528975}</t>
+    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.0002502803258980169}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -73,19 +73,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 0.9879518072289156}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 0.989247311827957, 96.0: 0.989247311827957, 100.0: 0.989247311827957}</t>
@@ -100,7 +100,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 1.0, 267.0: 0.9297082228116711, 887.0: 0.0036515616276937978, 834.0: 0.013634150300275929, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.4500769944503822e-07}</t>
+    <t>{61.0: 1.0, 267.0: 0.9297082228116711, 887.0: 0.0036515616276937978, 834.0: 0.013634150300275929, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.2666322734806188e-07}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -112,7 +112,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -124,22 +124,22 @@
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 0.9559682317215604, 85.0: 0.0008874153926401118, 686.0: 0.013679950072295109}</t>
+    <t>{77.0: 0.9559682317215604, 85.0: 0.0008843369396129144, 686.0: 0.01368138547538715}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.985751361164705, 172.0: 0.0017220035424072874}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9857571080201947, 172.0: 0.0017130361019852777}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491, 914.0: 0.001365578724140128, 110.0: 0.0001885338002122541, 860.0: 1.0}</t>
@@ -151,7 +151,7 @@
     <t>{84.0: 0.6735799921564724}</t>
   </si>
   <si>
-    <t>{85.0: 0.9851321015144169, 178.0: 0.008663193195170482, 492.0: 0.003406653584028076, 97.0: 1.3172174322003193e-05, 696.0: 3.422962754903443e-06}</t>
+    <t>{85.0: 0.9850972445109621, 178.0: 0.008709077689679268, 492.0: 0.003406653584028076, 97.0: 1.313197655262991e-05, 696.0: 3.3255064897542764e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -163,19 +163,19 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.4030499998860047e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.96351849239523, 92.0: 0.08226874328514915, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9177312567148509, 91.0: 0.03648150760476995, 858.0: 0.10635135141719504}</t>
+    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.3973902580550808e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.96351849239523, 92.0: 0.08160476573587713, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.918395234264123, 91.0: 0.03648150760476995, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9710404310226443}</t>
+    <t>{97.0: 0.9710736238304881}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -196,7 +196,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013045777853396504, 543.0: -1.425378623698061e-05, 505.0: 0.009033022619824398}</t>
+    <t>{107.0: 0.9707025076842066, 543.0: 0.0011139893934117994, 505.0: 0.009033022619824398}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -211,13 +211,13 @@
     <t>{140.0: 1.0, 762.0: 0.006328398689117414, 141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9962324013484037, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878193}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.031023147610285164, 152.0: 0.0003658764490503502}</t>
+    <t>{142.0: 0.9962324013484037, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014772}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.031022815778396627, 152.0: 0.0003658795242960575}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -235,10 +235,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6938526302422036, 173.0: 0.07662878361651851, 404.0: 0.00022369285492871666}</t>
+    <t>{152.0: 0.9280286630608138}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6938526302422036, 173.0: 0.07662878361651851, 404.0: 0.00022648901561532565}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -250,7 +250,7 @@
     <t>{165.0: 0.999453327866612, 914.0: 0.20430323972564632, 110.0: 0.028206404728079778}</t>
   </si>
   <si>
-    <t>{166.0: 0.998719590268886, 893.0: 0.002102567558460813}</t>
+    <t>{166.0: 0.998719590268886, 893.0: 0.0022519043749016595}</t>
   </si>
   <si>
     <t>{167.0: 0.9994659939545818, 596.0: 0.9994659939545818, 276.0: 0.002476227037285316}</t>
@@ -262,16 +262,16 @@
     <t>{170.0: 0.5220346929207689}</t>
   </si>
   <si>
-    <t>{171.0: 0.911799350983255}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982771056394336, 81.0: 0.013738694929124806, 97.0: 0.0012500520481753916}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.0026954824780397197, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9026351080079558, 502.0: 0.9085761665894734, 534.0: 0.0004147510536123148, 695.0: 0.0016371070024456121, 857.0: 4.051655123245801e-06, 786.0: 0.9086158707011788, 204.0: 0.03299716716722313}</t>
+    <t>{171.0: 0.912151980893484}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982860878500139, 81.0: 0.013738775024671702, 97.0: 0.0012500947783605665}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0027291760090152163, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.90266823408531, 502.0: 0.9085765084469374, 534.0: 0.0004147510536123148, 695.0: 0.0016371953374864632, 857.0: 4.050694329394539e-06, 786.0: 0.9086158707011788, 204.0: 0.03299714172168639}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751, 846.0: 0.0003843689942344651}</t>
@@ -283,40 +283,40 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 850.0: 0.001415488374311739}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 850.0: 0.0012467412429927535, 410.0: 0.013675588708497879, 77.0: 0.00024278083201257624, 85.0: 2.2537092783715592e-07}</t>
+    <t>{178.0: 0.9759282428739054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 850.0: 0.0014179661304327988}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 850.0: 0.0012495897215178515, 410.0: 0.013675588708497879, 77.0: 0.00024278083201257624, 85.0: 2.2458911379516768e-07}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0024306208616427754, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0021990452059194657, 282.0: 0.9972200158856235, 277.0: 0.003463745277607252}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9918073154221901, 778.0: 0.004088166085144559, 171.0: 8.621384515151897e-05, 593.0: 4.3298011271506575e-06, 420.0: 5.360433881417949e-06, 212.0: 4.3421902644130816e-09}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.27479290927306305, 307.0: 0.9834669117201308}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9633275045430625, 174.0: 0.0025351527709197635, 502.0: 0.0025518389057615273, 534.0: 1.1648752341659236e-06, 695.0: 4.598000140612257e-06, 857.0: 1.1379531575252349e-08, 786.0: 0.0025519504192489974}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.002432709592326763, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0022077161575020524, 282.0: 0.9971910112359551, 277.0: 0.003463623760378881}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917910059913613, 778.0: 0.004072641875622815, 171.0: 8.489469848449557e-05, 593.0: 4.328564394466524e-06, 420.0: 5.360433881417949e-06, 212.0: 4.324674369841023e-09}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27481355893620624, 307.0: 0.9834669117201308}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9633267616797347, 174.0: 0.0025352458092539132, 502.0: 0.0025518398659068724, 534.0: 1.1648752341659236e-06, 695.0: 4.598248239563425e-06, 857.0: 1.1376833077074403e-08, 786.0: 0.0025519504192489974}</t>
   </si>
   <si>
     <t>{205.0: 1.0, 206.0: 0.01639538570799976, 578.0: 0.0029847546889122914}</t>
@@ -328,25 +328,25 @@
     <t>{208.0: 0.999708242159008, 688.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
-  </si>
-  <si>
-    <t>{213.0: 1.0, 85.0: 0.0035277783402485837, 178.0: 3.102307321457648e-05, 492.0: 1.2199296630360164e-05, 97.0: 4.716982747360141e-08, 696.0: 1.2257700107084847e-08}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
+  </si>
+  <si>
+    <t>{213.0: 1.0, 85.0: 0.0035276535166014764, 178.0: 3.118738653421403e-05, 492.0: 1.2199296630360164e-05, 97.0: 4.702587843376871e-08, 696.0: 1.190870721487655e-08}</t>
   </si>
   <si>
     <t>{214.0: 1.0, 99.0: 0.0020604395604395605, 230.0: 1.0037215317807679e-05}</t>
   </si>
   <si>
-    <t>{265.0: 0.33183911513881736}</t>
+    <t>{265.0: 0.24695870567734204}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -361,19 +361,19 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{627.0: 1.0, 626.0: 0.31248670495639225}</t>
   </si>
   <si>
-    <t>{226.0: 0.7384353461125667, 265.0: 0.011399422295889507}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9794344473007712, 297.0: 4.042572425708979e-05, 844.0: 0.003870007694306637}</t>
+    <t>{226.0: 0.7384353461125667, 265.0: 0.008483588724869392}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9794344473007712, 297.0: 4.065561609317883e-05, 844.0: 0.003890504259387373}</t>
   </si>
   <si>
     <t>{230.0: 0.995128604832424, 581.0: 0.0017099938141341248}</t>
@@ -388,22 +388,22 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -412,10 +412,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.00771386760273191, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06, 618.0: 0.0016652789342214821}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06, 618.0: 0.0016652789342214821}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -424,7 +424,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996, 600.0: 1.0}</t>
+    <t>{249.0: 0.904978210564596, 600.0: 1.0}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -436,7 +436,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9861425329695047}</t>
+    <t>{253.0: 0.9861856595765358}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -460,22 +460,22 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.6567614625652931}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.7445577055977886}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -484,13 +484,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 1.0, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4394436572269415e-05}</t>
+    <t>{275.0: 1.0, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4309812023568202e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.997329918159962, 167.0: 0.0005340060454181676, 596.0: 0.0005340060454181676}</t>
   </si>
   <si>
-    <t>{277.0: 0.9562339628779037}</t>
+    <t>{277.0: 0.9562004156937055}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -508,10 +508,10 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081, 70.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026298366265383358, 142.0: 1.797534470597053e-05, 44.0: 3.616660946846924e-07}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195, 70.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026172626732387502, 142.0: 1.797534470597053e-05, 44.0: 3.5774486716174825e-07}</t>
   </si>
   <si>
     <t>{287.0: 1.0, 847.0: 1.0, 409.0: 1.0, 750.0: 1.0}</t>
@@ -538,7 +538,7 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9985641467881747, 298.0: 0.9258496089689167, 749.0: 0.00047013234937956776, 695.0: 0.9726124982080356, 857.0: 0.002407106197341186}</t>
+    <t>{297.0: 0.998555981419779, 298.0: 0.9258496089689167, 749.0: 0.00047013234937956776, 695.0: 0.9726649784458168, 857.0: 0.0024065353854721126}</t>
   </si>
   <si>
     <t>{299.0: 0.9421714285714285, 443.0: 0.014139506865004692}</t>
@@ -547,10 +547,10 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.1849036593952016e-05, 152.0: 1.3974350662682385e-07}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.9475683890577508, 144.0: 0.000958511394140859, 840.0: 0.10136869118905047}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.1848909853485841e-05, 152.0: 1.3974468119168037e-07}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9475683890577508, 144.0: 0.0009544083153175263, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 0.996803409696324}</t>
@@ -559,19 +559,19 @@
     <t>{305.0: 1.0, 732.0: 0.0014961101137043686}</t>
   </si>
   <si>
-    <t>{306.0: 0.9889451221379629, 142.0: 0.003749623306890302, 44.0: 7.544287133983491e-05}</t>
+    <t>{306.0: 0.9889451221379629, 142.0: 0.003749623306890302, 44.0: 7.462491060794599e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -583,7 +583,7 @@
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -592,7 +592,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -601,19 +601,19 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
+    <t>{400.0: 0.9375071729331006, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379, 165.0: 0.0005466721333880005, 914.0: 0.0001117479774241194, 110.0: 1.5428089554535637e-05}</t>
   </si>
   <si>
-    <t>{402.0: 0.9631065512242976, 141.0: 0.001462755443927208}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.9970808246670315, 907.0: 1.0}</t>
+    <t>{402.0: 0.9631027328570206, 141.0: 0.001462755443927208}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.9970443349753695, 907.0: 1.0}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -622,10 +622,10 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9863244112915022, 77.0: 0.01751008064894982, 85.0: 1.6254426223207072e-05}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9863244112915022, 77.0: 0.01751008064894982, 85.0: 1.6198039453237575e-05}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -634,7 +634,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.03761711648720459}</t>
+    <t>{415.0: 1.0, 277.0: 0.03764870538838348}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -643,46 +643,46 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 1.0, 922.0: 0.07468970214579618, 887.0: 0.003503764981820322}</t>
+    <t>{418.0: 1.0, 922.0: 0.07468428293331203, 887.0: 0.003503764981820322}</t>
   </si>
   <si>
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9911644356572448, 212.0: 0.0008028873516867112}</t>
+    <t>{420.0: 0.9911644356572448, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9970319608416004, 202.0: 0.0002402943891510571, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 680.0: 8.329277927499078e-08, 477.0: 1.2265567663800832e-05, 207.0: 6.229748827025319e-06}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9970319608416004, 202.0: 0.00024031139176103417, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 680.0: 8.329277927499078e-08, 477.0: 1.2265456117012493e-05, 207.0: 6.229748827025319e-06}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0, 244.0: 0.020075282308657464, 565.0: 0.0003033439621543061, 436.0: 0.00754242614707731, 564.0: 0.0001531357489516091, 84.0: 4.878686138488579e-05, 567.0: 0.014299332697807437, 841.0: 0.0027063599458728013}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0928228081487114e-05, 918.0: 6.570736109710267e-07}</t>
@@ -691,10 +691,10 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 1.0, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5751974037386366e-06, 172.0: 2.751703539139699e-09}</t>
+    <t>{434.0: 1.0, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5571981727767432e-06, 172.0: 2.7060790799364145e-09}</t>
   </si>
   <si>
     <t>{436.0: 0.9924575738529227}</t>
@@ -721,13 +721,13 @@
     <t>{475.0: 0.9825250343608875, 32.0: 1.0, 590.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 402.0: 0.035199312420877364, 141.0: 5.346032149888464e-05}</t>
+    <t>{476.0: 1.0, 402.0: 0.035199172868402566, 141.0: 5.346032149888464e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -751,22 +751,22 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243}</t>
+    <t>{492.0: 0.995625, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788}</t>
   </si>
   <si>
     <t>{493.0: 0.9964826549013788}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -778,16 +778,16 @@
     <t>{498.0: 1.0, 47.0: 0.012048192771084338}</t>
   </si>
   <si>
-    <t>{499.0: 0.6683720830288906, 270.0: 0.9996682484918197, 479.0: 0.02116481274502622, 942.0: 0.0001947682154450266, 679.0: 1.0, 769.0: 0.5056044835868695}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9100470457515898, 277.0: 0.00025258275422842895}</t>
+    <t>{499.0: 0.6690568665420652, 270.0: 0.9996682484918197, 479.0: 0.020537856992426304, 942.0: 0.00018921634081314062, 679.0: 1.0, 769.0: 0.5056044835868695}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9113407197519986, 277.0: 0.00025257389296590285}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -814,16 +814,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995840840711535, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06, 174.0: 0.08824746074011176, 502.0: 0.08882829714817507, 695.0: 0.0001600541953708362, 857.0: 3.9611607530997465e-07, 786.0: 0.08883217887957225, 204.0: 0.0026372146904262293}</t>
+    <t>{534.0: 0.9995840840711535, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06, 174.0: 0.08825069936021956, 502.0: 0.08882833057037733, 695.0: 0.00016006283157718397, 857.0: 3.960221418733995e-07, 786.0: 0.08883217887957225, 204.0: 0.0026372126567564013}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167, 779.0: 0.9517781796262809}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{536.0: 0.5216757544674189, 779.0: 0.9517781796262809}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -835,10 +835,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 1.0, 911.0: 0.012496045555204052}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.9989074023490849}</t>
+    <t>{542.0: 1.0, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.998852388466504}</t>
   </si>
   <si>
     <t>{544.0: 0.9991442019683354, 975.0: 0.0007094515043562145}</t>
@@ -880,7 +880,7 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104, 728.0: 0.002418704649287826}</t>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495, 728.0: 0.002418704649287826}</t>
   </si>
   <si>
     <t>{581.0: 0.9889464225075689, 181.0: 0.004568817818389492}</t>
@@ -889,13 +889,13 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996}</t>
+    <t>{585.0: 0.738502526649488}</t>
   </si>
   <si>
     <t>{586.0: 1.0, 243.0: 0.011176157530601383}</t>
@@ -907,19 +907,19 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.322868116371393, 686.0: 0.0031784310045871716, 171.0: 0.0018120628782403129}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6758937883905117, 686.0: 0.006653743940318745, 171.0: 0.003793381822089934, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{593.0: 0.4962085975100857, 686.0: 0.004833238028639742, 171.0: 0.002785993901284101}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5025536608922755, 686.0: 0.004895041072333087, 171.0: 0.0028216186525978513, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -937,7 +937,7 @@
     <t>{603.0: 0.9964699949571356}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{606.0: 0.9976918638199653}</t>
@@ -946,7 +946,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.619199737790098, 610.0: 0.46377929329690437, 531.0: 0.12147832833239579, 262.0: 0.0026866848142964757, 442.0: 0.0002552065721268819, 1.0: 1.0}</t>
@@ -964,7 +964,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0, 682.0: 0.002717391304347826, 575.0: 5.173296010354117e-06}</t>
@@ -973,10 +973,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 0.9983347210657785, 789.0: 0.10684711957973467, 681.0: 0.008360022404934518, 171.0: 3.9205345716017745e-05, 90.0: 6.01421623358749e-06, 420.0: 1.042437961507482e-08, 212.0: 6.511616408654362e-05}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9992133045579098, 861.0: 0.015827253643999197}</t>
+    <t>{618.0: 0.9983347210657785, 789.0: 0.10684711957973467, 681.0: 0.008359295381328206, 171.0: 3.9220508018475446e-05, 90.0: 6.01421623358749e-06, 420.0: 1.042437961507482e-08, 212.0: 6.511637700023861e-05}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9992133045579098, 861.0: 0.015843873673027867}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -988,7 +988,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1021,10 +1021,10 @@
     <t>{678.0: 1.0, 735.0: 1.0}</t>
   </si>
   <si>
-    <t>{680.0: 0.9733726780999389, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 202.0: 3.560782883014801e-05, 477.0: 4.292948682330291e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004238586592527791, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007039869053910691}</t>
+    <t>{680.0: 0.9733726780999389, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 202.0: 3.560681346302553e-05, 477.0: 4.292909640954372e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.00424022582643162, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 0.9972826086956522, 575.0: 0.001898599635799961}</t>
@@ -1039,13 +1039,13 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.9660293509956341}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 4.33979353343334e-05}</t>
-  </si>
-  <si>
-    <t>{689.0: 1.0, 700.0: 0.00045327179825284327, 752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{686.0: 0.9661307140495996}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 4.302427357788537e-05}</t>
+  </si>
+  <si>
+    <t>{689.0: 1.0, 700.0: 0.00045327179825284327, 752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{691.0: 1.0}</t>
@@ -1054,19 +1054,19 @@
     <t>{692.0: 1.0, 110.0: 0.029338653113540815, 914.0: 0.0053125045723932405}</t>
   </si>
   <si>
-    <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247, 107.0: -1.9227906956870382e-05, 543.0: -2.1008365973089733e-08, 505.0: 1.331358853608483e-05}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996093642750126, 14.0: 0.004599706043810097, 178.0: 7.46584327838029e-07, 623.0: 3.5074775383636553e-06, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247, 107.0: 0.0014306987065315776, 543.0: 1.6418863365733211e-06, 505.0: 1.331358853608483e-05}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960435031848425, 14.0: 0.004599706043810097, 178.0: 7.510950430780693e-07, 623.0: 3.5165948347171998e-06, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.30531201886304254}</t>
@@ -1075,10 +1075,10 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8123152474620813}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 477.0: 0.00024935669419516365, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
+    <t>{702.0: 0.8122887726510712}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 477.0: 0.00024935208588283014, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1108,7 +1108,7 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
   </si>
   <si>
     <t>{738.0: 0.9928304239401496, 228.0: 0.9928304239401496}</t>
@@ -1117,16 +1117,16 @@
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.8931528804202653, 681.0: 0.06988282061991512, 171.0: 0.0003277240190644783, 90.0: 5.0273835865930085e-05, 420.0: 8.713912659901293e-08, 212.0: 0.0005443168682934325}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.8931528804202653, 681.0: 0.06987674330841935, 171.0: 0.0003278507632777726, 90.0: 5.0273835865930085e-05, 420.0: 8.713912659901293e-08, 212.0: 0.0005443186480744946}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1138,7 +1138,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{749.0: 0.9995298676506204, 298.0: 0.07415039103108334, 297.0: 0.00040398925276964663}</t>
+    <t>{749.0: 0.9995298676506204, 298.0: 0.07415039103108334, 297.0: 0.00040628664713390897}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
@@ -1180,7 +1180,7 @@
     <t>{768.0: 0.9878610297195479}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1189,7 +1189,7 @@
     <t>{772.0: 1.0, 493.0: 0.0006747638326585695}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1201,22 +1201,22 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9959118339148554, 171.0: 0.024566408297385458, 184.0: 0.008192684577809846, 593.0: 0.0012337654369680873, 420.0: 0.0015274415281050933, 212.0: 1.2372956890280223e-06, 227.0: 0.02056555269922879, 297.0: 8.488341051357435e-07, 844.0: 8.126000407992938e-05}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.0005083687087665827, 172.0: 8.880664555316855e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{778.0: 0.9959273581243772, 171.0: 0.024190520926055743, 184.0: 0.008208994008638804, 593.0: 0.0012334130332443034, 420.0: 0.0015274415281050933, 212.0: 1.2323045809641737e-06, 227.0: 0.02056555269922879, 297.0: 8.536612303029675e-07, 844.0: 8.16903781498661e-05}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005025597569608143, 172.0: 8.733419217314788e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
-  </si>
-  <si>
-    <t>{787.0: 1.0, 500.0: 0.0899529542484101, 277.0: 1.9717414132332207e-06}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
+  </si>
+  <si>
+    <t>{787.0: 1.0, 500.0: 0.08865928024800145, 277.0: 1.971672239396117e-06}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1228,16 +1228,16 @@
     <t>{833.0: 0.9992826398852224, 17.0: 0.015223021717511548, 918.0: 0.0009153035400826402}</t>
   </si>
   <si>
-    <t>{834.0: 0.9863658496997241, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -1.0490616541994016e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951990927166076, 836.0: 0.022287545654982754, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9777124543450172, 835.0: 0.0048009072833924355}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394, 2.0: 1.0, 840.0: 0.852224123182207, 303.0: 0.05243161094224925, 144.0: 5.303711803987111e-05}</t>
+    <t>{834.0: 0.9863658496997241, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -9.163481340406811e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9950128062170731, 836.0: 0.02148231330574205, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.978517686694258, 835.0: 0.004987193782926856}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394, 2.0: 1.0, 840.0: 0.852224123182207, 303.0: 0.05243161094224925, 144.0: 5.281008320521998e-05}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 423.0: 0.001701162461015027}</t>
@@ -1249,7 +1249,7 @@
     <t>{842.0: 1.0, 606.0: 0.002308136180034622}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1258,25 +1258,25 @@
     <t>{846.0: 0.9996156310057656}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0, 315.0: 0.002220029600394672}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 1.0, 229.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.999936846093931, 202.0: 0.724873658328013, 680.0: 0.02549723214989914, 477.0: 0.9972701116692255, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003636125129370947, 574.0: 1.0, 906.0: 0.007075471698113208}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.999936846093931, 202.0: 0.7248529883544482, 680.0: 0.02549723214989914, 477.0: 0.9972701616016698, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003636125129370947, 574.0: 1.0, 906.0: 0.007075471698113208}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1285,10 +1285,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9975697628520787, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292, 107.0: -0.00037451638997016855, 543.0: -4.091957279105911e-07, 505.0: 0.0002593187665858292}</t>
+    <t>{857.0: 0.997570339149132, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183, 107.0: 0.0278667936092618, 543.0: 3.198025374753901e-05, 505.0: 0.0002593187665858292}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1306,10 +1306,10 @@
     <t>{886.0: 0.3792551629775861, 531.0: 0.010622899727404714, 262.0: 0.0002349421808251973, 442.0: 2.2317016234043518e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05, 267.0: 0.07029177718832891}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05, 267.0: 0.07029177718832891}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1321,58 +1321,58 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 0.9841479524438573}</t>
   </si>
   <si>
-    <t>{895.0: 1.0, 209.0: 0.08115275122291041, 896.0: 1.0, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 629.0: 1.0, 788.0: 0.513246688327918}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.3316279169711094, 270.0: 0.0003317515081802529, 479.0: 7.023788701009786e-06, 942.0: 6.463609234058086e-08, 769.0: 0.4943955164131305}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750516307268886, 202.0: 5.753018094275371e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.050461541042687e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.46065727549643454}</t>
+    <t>{895.0: 1.0, 209.0: 0.08122287673012647, 896.0: 1.0, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 629.0: 1.0, 788.0: 0.5105034182722188}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.33094313345793486, 270.0: 0.0003317515081802529, 479.0: 6.815726159460524e-06, 942.0: 6.279363832132536e-08, 769.0: 0.4943955164131305}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750114340227723, 202.0: 5.7534504121471e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.050461541042687e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.4635006889360994}</t>
   </si>
   <si>
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 2.99421255704161e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9841625534894144, 490.0: 0.04730928444707274, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028425812659627287, 619.0: 0.0001431947985895543, 253.0: 0.011289173778102075}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 2.968432005164577e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9841459227569659, 490.0: 0.047477744807121657, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028425812659627287, 619.0: 0.0001431947985895543, 253.0: 0.01128966748336775}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.05333706621656943}</t>
+    <t>{915.0: 1.0, 171.0: 0.05335769383036576}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318, 857.0: 1.8671799850093234e-05}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298, 857.0: 1.866737209157424e-05}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.010458523987164852}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9203528910639235, 887.0: 0.043174629674277896}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.010459621374040539}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9202861136135684, 887.0: 0.043174629674277896}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1381,7 +1381,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1390,7 +1390,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 922.0: 0.0015375823955721872, 887.0: 7.212945291645471e-05}</t>
+    <t>{928.0: 1.0, 922.0: 0.0015374708341992789, 887.0: 7.212945291645471e-05}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1399,55 +1399,55 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.09421646692390045, 299.0: 0.05782857142857143, 702.0: 0.0009879618396467856}</t>
+    <t>{933.0: 1.0, 249.0: 0.09502178943540394, 299.0: 0.05782857142857143, 702.0: 0.000898228167765301}</t>
   </si>
   <si>
     <t>{934.0: 1.0, 5.0: 0.0029201396313996318}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
-  </si>
-  <si>
-    <t>{936.0: 1.0, 702.0: 0.00019383317900323384}</t>
-  </si>
-  <si>
-    <t>{937.0: 1.0, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{935.0: 0.9948447126870363}</t>
+  </si>
+  <si>
+    <t>{936.0: 1.0, 702.0: 0.00017622788071495208}</t>
+  </si>
+  <si>
+    <t>{937.0: 1.0, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 152.0: 0.00043336244194414986}</t>
-  </si>
-  <si>
-    <t>{972.0: 1.0, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 0.9959752321981424, 152.0: 0.00042499476517949327}</t>
+  </si>
+  <si>
+    <t>{972.0: 1.0, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0, 565.0: 0.010326270022292377}</t>
   </si>
   <si>
-    <t>{975.0: 0.9941776158300827, 152.0: 0.07117800722589049}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9941776158300827, 152.0: 0.07117860548757622}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1465,10 +1465,10 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.6522559926848331}</t>
-  </si>
-  <si>
-    <t>{4.0: 0.91165787329101, 496.0: 0.004334876500652204, 559.0: 0.04545999385731579, 944.0: 0.035880301665161124, 971.0: 0.0022842986943065286, 152.0: 2.355554209132797e-06, 166.0: 0.00038000778598933077, 893.0: 2.926513561719916e-07}</t>
+    <t>{992.0: 0.6522602170250872}</t>
+  </si>
+  <si>
+    <t>{4.0: 0.91165787329101, 496.0: 0.004334876500652204, 559.0: 0.04545999385731579, 944.0: 0.035880301665161124, 971.0: 0.0022842986943065286, 152.0: 2.355554209132797e-06, 166.0: 0.0003800041378228341, 893.0: 2.962995226688764e-07}</t>
   </si>
   <si>
     <t>{5.0: 0.9962516462364501, 403.0: 0.003748353763549791}</t>
@@ -1483,7 +1483,7 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994835, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033584, 696.0: 0.005813953488372091}</t>
+    <t>{14.0: 0.991930277598451, 178.0: 0.0006455777921239509, 623.0: 0.001613944480309877, 696.0: 0.005810200129115557}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1522,16 +1522,16 @@
     <t>{73.0: 0.8707625109862648, 888.0: 0.007535418671092929, 11.0: 0.12170207034264226}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487787, 917.0: 0.2266840904512216}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9889401386451631, 85.0: 0.0005168226488869417, 686.0: 0.010543038705950318}</t>
+    <t>{75.0: 0.7755896859332863, 917.0: 0.2244103140667137}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9889318415056485, 85.0: 0.0005251197884007162, 686.0: 0.010543038705950318}</t>
   </si>
   <si>
     <t>{79.0: 0.9797512417816668, 271.0: 0.018221544275942185, 262.0: 0.0020272139423908164}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985303723056824, 172.0: 0.0014696276943174395}</t>
+    <t>{81.0: 0.9985291714332405, 172.0: 0.0014708285667592734}</t>
   </si>
   <si>
     <t>{82.0: 0.7932843425038838, 914.0: 0.0009225701795882796, 110.0: 9.765832606118457e-05, 860.0: 0.2056954289904669}</t>
@@ -1543,7 +1543,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1558,10 +1558,10 @@
     <t>{90.0: 0.9975819711770966, 420.0: 0.002417631055372248, 212.0: 3.9776753132152803e-07}</t>
   </si>
   <si>
-    <t>{91.0: 0.9594714096575209, 92.0: 0.007395204865203072, 104.0: 0.02094026447201192, 294.0: 0.0035855077645153698, 566.0: 0.007920445430630262, 858.0: 0.0006871678101188415}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863925, 858.0: 0.12977877289055065}</t>
+    <t>{91.0: 0.9594714096575212, 92.0: 0.0071649138056952095, 104.0: 0.021170555531519773, 294.0: 0.0035855077645153698, 566.0: 0.007920445430630262, 858.0: 0.0006871678101188415}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863936, 858.0: 0.12977877289055065}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
@@ -1573,7 +1573,7 @@
     <t>{99.0: 0.9935367114788005, 230.0: 0.006463288521199587}</t>
   </si>
   <si>
-    <t>{107.0: 0.9955423144152916, 543.0: 0.0008154334509391148, 505.0: 0.0036422521337693492}</t>
+    <t>{107.0: 0.9955476185865345, 543.0: 0.0008101292796960921, 505.0: 0.0036422521337693492}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -1585,7 +1585,7 @@
     <t>{140.0: 0.35852366256693413, 762.0: 0.005155964330700646, 141.0: 0.6363203731023652}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273647}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289226}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1600,13 +1600,13 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{185.0: 0.4092257506567011, 700.0: 0.5687493458544935, 173.0: 0.021884056783840946, 404.0: 0.00014084670496438258}</t>
+    <t>{185.0: 0.4092257506567011, 700.0: 0.5687493458544935, 173.0: 0.021884206740407322, 404.0: 0.00014069674839801112}</t>
   </si>
   <si>
     <t>{165.0: 0.9073568431784623, 914.0: 0.08377516737984302, 110.0: 0.008867989441694457}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542518}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578106}</t>
   </si>
   <si>
     <t>{167.0: 0.4188759223899271, 596.0: 0.5805857938202688, 276.0: 0.00053828378980415}</t>
@@ -1618,13 +1618,13 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9837536394722619, 81.0: 0.015271511629317457, 97.0: 0.0009748488984207448}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9461440454101391, 404.0: 0.006089422657506927, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.3171056375413422e-06, 831.0: 0.0014662756598240463}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.31126578986356224, 502.0: 0.41450999623432716, 534.0: 0.00038684466796013323, 695.0: 0.000480563316131764, 857.0: 2.992518818402926e-06, 786.0: 0.24934154970097577, 204.0: 0.024012263698224286}</t>
+    <t>{172.0: 0.9837536578383905, 81.0: 0.015271493263188616, 97.0: 0.0009748488984207448}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9461505286921805, 404.0: 0.006082939375465398, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.3171056375413422e-06, 831.0: 0.0014662756598240463}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.31126578986356224, 502.0: 0.41450999623432716, 534.0: 0.00038684466796013323, 695.0: 0.0004805512848061052, 857.0: 3.004550144061709e-06, 786.0: 0.24934154970097577, 204.0: 0.024012263698224286}</t>
   </si>
   <si>
     <t>{175.0: 0.9813273695447162, 399.0: 0.018135092379669766, 846.0: 0.0005375380756136893}</t>
@@ -1636,25 +1636,25 @@
     <t>{177.0: 0.9988607234406153, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.46234052964435124, 850.0: 0.00020695636958117784}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.991042837624022, 850.0: 0.00044361810099553367, 410.0: 0.008424286533929168, 77.0: 8.921111909447312e-05, 85.0: 4.662195928637215e-08}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.00722748362491933, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.4614108006709617, 850.0: 0.00020654019725647354}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.991042837624022, 850.0: 0.00044361810099553367, 410.0: 0.008424286533929168, 77.0: 8.921037061934058e-05, 85.0: 4.7370434418871947e-08}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971744383835212, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749618}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.7639799269406792, 182.0: 0.0036214202342036545, 282.0: 0.22999521809839887, 277.0: 0.0024034347267185468}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9844541285385575, 778.0: 0.015229946623203337, 171.0: 0.00026738783948413136, 593.0: 2.1066920686628537e-05, 420.0: 2.7465559220133375e-05, 212.0: 4.518848177053863e-09}</t>
+    <t>{182.0: 0.9971634886605053, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794806}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.7641065124158297, 182.0: 0.0035174306060558203, 282.0: 0.22997262225139564, 277.0: 0.0024034347267185468}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9844403357168338, 778.0: 0.015251161826322664, 171.0: 0.00026050754212293204, 593.0: 2.0524836652109808e-05, 420.0: 2.7465559220133375e-05, 212.0: 4.518848177053863e-09}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1669,7 +1669,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9962284406836981, 174.0: 0.0012028403082751575, 502.0: 0.0016018121743227231, 534.0: 1.4949036316124845e-06, 695.0: 1.8570653960238832e-06, 857.0: 1.1564143491723816e-08, 786.0: 0.0009635433005329333}</t>
+    <t>{204.0: 0.9962284406836981, 174.0: 0.0012028403082751575, 502.0: 0.0016018121743227231, 534.0: 1.4949036316124845e-06, 695.0: 1.857018902756921e-06, 857.0: 1.161063675868615e-08, 786.0: 0.0009635433005329333}</t>
   </si>
   <si>
     <t>{205.0: 0.9904418591949313, 206.0: 0.007663476366793177, 578.0: 0.001894664438275369}</t>
@@ -1690,7 +1690,7 @@
     <t>{212.0: 0.9935532802426998, 681.0: 0.006446719757299962}</t>
   </si>
   <si>
-    <t>{213.0: 0.9985304922850845, 85.0: 0.0014214157017900036, 178.0: 3.498470733667284e-05, 492.0: 1.307387162730432e-05, 97.0: 2.674732921791012e-08, 696.0: 6.68683230447753e-09}</t>
+    <t>{213.0: 0.9985304922850845, 85.0: 0.0014214157017900036, 178.0: 3.498470733667284e-05, 492.0: 1.3073871627304318e-05, 97.0: 2.674732921791012e-08, 696.0: 6.68683230447753e-09}</t>
   </si>
   <si>
     <t>{214.0: 0.9995245265076472, 99.0: 0.00047240036998754287, 230.0: 3.0731223652585403e-06}</t>
@@ -1699,7 +1699,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8416485635345017, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{226.0: 0.98456709390531, 265.0: 0.015432906094690035}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628106, 297.0: 0.00018045618356780222, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524382, 297.0: 0.00017861479393955929, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{230.0: 0.9967205946655007, 581.0: 0.003279405334499344}</t>
@@ -1723,7 +1723,7 @@
     <t>{238.0: 0.9953091684434967, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893284, 241.0: 0.7619738000310672}</t>
+    <t>{240.0: 0.23802619996893298, 241.0: 0.7619738000310672}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1756,7 +1756,7 @@
     <t>{262.0: 0.9992897727272728, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549509, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988971}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1768,7 +1768,7 @@
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.04594126166338234, 85.0: 2.400902098948645e-05}</t>
+    <t>{275.0: 0.944592580371491, 921.0: 0.009442148944137254, 77.0: 0.045940876219367474, 85.0: 2.4394465004310364e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937943, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1786,7 +1786,7 @@
     <t>{285.0: 0.8902520252007272, 311.0: 0.10782691297601038, 70.0: 0.0019210618232623122}</t>
   </si>
   <si>
-    <t>{286.0: 0.854304730303602, 909.0: 0.09067170299822307, 306.0: 0.012640639376748851, 788.0: 0.04237388612014245, 142.0: 8.903700321944488e-06, 44.0: 1.3750096152363283e-07}</t>
+    <t>{286.0: 0.854304730303602, 909.0: 0.09067170299822307, 306.0: 0.012640639376748851, 788.0: 0.04237388612014245, 142.0: 8.902978696818407e-06, 44.0: 1.3822258664971232e-07}</t>
   </si>
   <si>
     <t>{287.0: 0.31605461345045516, 847.0: 0.08930331364660231, 409.0: 0.4173254281949934, 750.0: 0.17731664470794906}</t>
@@ -1798,7 +1798,7 @@
     <t>{293.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.821712315603181, 298.0: 0.14696426042706018, 749.0: 4.884276072770073e-05, 695.0: 0.031081036294377695, 857.0: 0.00019354491465363398}</t>
+    <t>{297.0: 0.8217120967662809, 298.0: 0.14696447926396003, 749.0: 4.884276072770073e-05, 695.0: 0.031080258153273456, 857.0: 0.00019432305575787002}</t>
   </si>
   <si>
     <t>{299.0: 0.9836831771673026, 443.0: 0.016316822832697496}</t>
@@ -1807,7 +1807,7 @@
     <t>{301.0: 0.9995592383638928, 145.0: 0.00043337092059544035, 743.0: 1.3700028984314633e-06, 544.0: 4.091679947130299e-10, 975.0: 1.2513753235131679e-06, 942.0: 4.685949257780303e-06, 152.0: 8.297886403337237e-08}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603586, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -1816,10 +1816,10 @@
     <t>{305.0: 0.9992405063291141, 732.0: 0.0007594936708860759}</t>
   </si>
   <si>
-    <t>{306.0: 0.9980565642100954, 142.0: 0.0019138795084553569, 44.0: 2.9556281449005187e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662859, 426.0: 0.0731432659158121, 204.0: 0.001076591817902184}</t>
+    <t>{306.0: 0.9980565642100954, 142.0: 0.0019137243927740504, 44.0: 2.9711397130311994e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879627, 426.0: 0.07086273685860801, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392753, 5.0: 0.05300183025736111, 759.0: 0.005269187803363386}</t>
@@ -1828,10 +1828,7 @@
     <t>{315.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 0.9822371579452711, 71.0: 0.017762842054728757}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
@@ -1852,19 +1849,19 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.494820544803916, 404.0: 0.3930108881632079, 907.0: 0.11216856703287592}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.9430399999999999, 403.0: 0.05696}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9895157952821076, 77.0: 0.010478728507540653, 85.0: 5.476210351471466e-06}</t>
+    <t>{405.0: 0.49483827665109575, 404.0: 0.3929931563160284, 907.0: 0.11216856703287592}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917458, 403.0: 0.05686174290825453}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9895157952821076, 77.0: 0.010478640591731635, 85.0: 5.564126160484077e-06}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888406, 759.0: 0.0030998140111593298}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471701, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 0.9705407929365818, 922.0: 0.02744343438003586, 887.0: 0.002015772683382081}</t>
@@ -1876,10 +1873,10 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9987563735853748, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021136654246143693, 680.0: 4.5181222698519826e-08, 477.0: 2.1032372732886715e-05, 207.0: 5.350025699706738e-07}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.047962867457452284}</t>
+    <t>{423.0: 0.9987563735853748, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021136654246143693, 680.0: 4.5181222698519826e-08, 477.0: 2.104891443709804e-05, 207.0: 5.18460865759347e-07}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04788877445932029}</t>
   </si>
   <si>
     <t>{425.0: 0.9661477637756363, 244.0: 0.019351018158508412, 565.0: 0.0007963404438087853, 436.0: 0.0029651593773165306, 564.0: 0.0026326333041735137, 84.0: 0.00019999326771240656, 567.0: 0.007412898443291327, 841.0: 0.0004941932295527551}</t>
@@ -1894,7 +1891,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749247, 431.0: 0.00018684574941587372, 783.0: 0.00018839487565938212}</t>
+    <t>{430.0: 0.9992810498068837, 431.0: 0.0003566313525363612, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1906,7 +1903,7 @@
     <t>{434.0: 0.6910542610395957, 585.0: 0.30894573896040417}</t>
   </si>
   <si>
-    <t>{435.0: 0.9862700228832952, 781.0: 0.013725173626168352, 81.0: 4.7964311937347235e-06, 172.0: 7.059342721768193e-09}</t>
+    <t>{435.0: 0.9862700228832952, 781.0: 0.013725173626168352, 81.0: 4.796425425355314e-06, 172.0: 7.065111101178039e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -1930,19 +1927,19 @@
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343366, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
+    <t>{479.0: 0.9235911012950445, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9916936790923825, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869779, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9720767471169998, 97.0: 0.011519836235458275, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{489.0: 0.9917305365066563, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294475, 503.0: 0.02208588957055216}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.972076747116999, 97.0: 0.011519836235458275, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -1957,7 +1954,7 @@
     <t>{498.0: 0.9903248099516241, 47.0: 0.009675190048375951}</t>
   </si>
   <si>
-    <t>{499.0: 0.5028381312363647, 270.0: 0.2181751331443209, 479.0: 0.0027303040350768045, 942.0: 6.181820456777674e-05, 679.0: 0.16646394439617723, 769.0: 0.10973066898349261}</t>
+    <t>{499.0: 0.5028381312363647, 270.0: 0.2181751331443209, 479.0: 0.0027290827911483732, 942.0: 6.303944849620883e-05, 679.0: 0.16646394439617723, 769.0: 0.10973066898349261}</t>
   </si>
   <si>
     <t>{500.0: 0.9993798449612405, 277.0: 0.00062015503875969}</t>
@@ -1981,7 +1978,7 @@
     <t>{532.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9130846649933189, 402.0: 0.0006937808529542128, 141.0: 1.3853451536625656e-06, 174.0: 0.026969906630374803, 502.0: 0.03591559451713939, 695.0: 4.1638844319313334e-05, 857.0: 2.592895067503028e-07, 786.0: 0.02160442468623338, 204.0: 0.0016883448409997083}</t>
+    <t>{534.0: 0.9130846649933189, 402.0: 0.0006937808529542128, 141.0: 1.3853451536625656e-06, 174.0: 0.026969906630374803, 502.0: 0.03591559451713939, 695.0: 4.163780185419116e-05, 857.0: 2.6033197187247136e-07, 786.0: 0.02160442468623338, 204.0: 0.0016883448409997083}</t>
   </si>
   <si>
     <t>{536.0: 0.9289167165415957, 779.0: 0.07108328345840431}</t>
@@ -2032,7 +2029,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9870836901367743, 752.0: 0.01180396281094478, 728.0: 0.0011123470522803114}</t>
+    <t>{580.0: 0.9873633900010385, 752.0: 0.011524262946681185, 728.0: 0.0011123470522803114}</t>
   </si>
   <si>
     <t>{581.0: 0.9981590150730643, 181.0: 0.0018409849269359108}</t>
@@ -2053,10 +2050,10 @@
     <t>{589.0: 0.9635931981692134, 145.0: 0.001457046166586512, 743.0: 0.022665162591345742, 10.0: 0.012284593072854464}</t>
   </si>
   <si>
-    <t>{593.0: 0.9912075672819319, 686.0: 0.005427172557571233, 171.0: 0.003365260160497021}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357594, 686.0: 0.005408680253004251, 171.0: 0.003353793523832187, 85.0: 0.003295843986250127, 178.0: 8.111922299795207e-05, 492.0: 3.0314454192108706e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
+    <t>{593.0: 0.9912172314130084, 686.0: 0.00541750842649402, 171.0: 0.003365260160497021}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.987839802237709, 686.0: 0.005399049051054197, 171.0: 0.003353793523832187, 85.0: 0.003295843986250127, 178.0: 8.111922299795207e-05, 492.0: 3.0314454192108706e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
   </si>
   <si>
     <t>{595.0: 0.9991012043861228, 402.0: 0.0008987956138774044}</t>
@@ -2074,7 +2071,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225909, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.9960505529225909, 852.0: 0.0011727912431587178, 922.0: 0.0027766558342504455}</t>
   </si>
   <si>
     <t>{606.0: 1.0}</t>
@@ -2104,7 +2101,7 @@
     <t>{618.0: 0.7498436522826767, 789.0: 0.23763463937132687, 681.0: 0.012424607511437443, 171.0: 5.415692450063821e-05, 90.0: 9.555721153299814e-06, 420.0: 2.315820542489927e-08, 212.0: 3.3365030699628044e-05}</t>
   </si>
   <si>
-    <t>{619.0: 0.9785175700668658, 861.0: 0.021482429933134154}</t>
+    <t>{619.0: 0.9784562705093451, 861.0: 0.021543729490654875}</t>
   </si>
   <si>
     <t>{621.0: 0.9811912225705329, 894.0: 0.018808777429467082}</t>
@@ -2125,7 +2122,7 @@
     <t>{678.0: 0.5749604714675864, 735.0: 0.4250395285324134}</t>
   </si>
   <si>
-    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.00043920513052004217, 202.0: 3.267379999936262e-05, 477.0: 4.37038232433548e-05, 307.0: 4.568668548426226e-08, 207.0: 1.1116985253964605e-06}</t>
+    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.00043920513052004217, 202.0: 3.267379999936262e-05, 477.0: 4.373819576642562e-05, 307.0: 4.568668548426226e-08, 207.0: 1.077326002325619e-06}</t>
   </si>
   <si>
     <t>{681.0: 0.9922454003977791, 171.0: 0.00432504279801037, 90.0: 0.0007631323849157585, 420.0: 1.849444563393273e-06, 212.0: 0.0026645749747314512}</t>
@@ -2146,19 +2143,19 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458073, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
-  </si>
-  <si>
-    <t>{689.0: 0.4093393339333933, 700.0: 0.0008121812181218122, 752.0: 0.4758265579730778, 580.0: 0.11402192687540709}</t>
+    <t>{687.0: 0.9971296091852496, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
+  </si>
+  <si>
+    <t>{689.0: 0.4093393339333933, 700.0: 0.0008121812181218122, 752.0: 0.47578122792571004, 580.0: 0.11406725692277478}</t>
   </si>
   <si>
     <t>{692.0: 0.9486669212930688, 110.0: 0.039490951555331485, 914.0: 0.011842127151599699}</t>
   </si>
   <si>
-    <t>{694.0: 0.9378271162681556, 86.0: 0.060026585002103325, 107.0: 0.0021367312048335215, 543.0: 1.7501637799394053e-06, 505.0: 7.817361128107671e-06}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9963088815749237, 14.0: 0.0016752646293275186, 178.0: 1.0910222268495723e-06, 623.0: 2.7275555671239305e-06, 492.0: 0.0020079272770584643, 97.0: 4.107940895865923e-06}</t>
+    <t>{694.0: 0.9378271162681556, 86.0: 0.060026585002103325, 107.0: 0.0021367425891695223, 543.0: 1.7387794439381737e-06, 505.0: 7.817361128107671e-06}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9963088752358671, 14.0: 0.0016752734335740234, 178.0: 1.0903178871292042e-06, 623.0: 2.7257947178230103e-06, 492.0: 0.0020079272770584635, 97.0: 4.107940895865923e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2191,7 +2188,7 @@
     <t>{734.0: 0.22142465294888838, 73.0: 0.10797868878371719, 888.0: 0.6705966582673945}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851532, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 0.7068236714975844, 228.0: 0.2931763285024155}</t>
@@ -2212,7 +2209,7 @@
     <t>{743.0: 0.9994769518487788, 145.0: 0.00022416349338054986, 544.0: 0.000298505923321822, 975.0: 3.787345189111719e-07}</t>
   </si>
   <si>
-    <t>{749.0: 0.930835889162391, 298.0: 0.06820116783259232, 297.0: 0.0009629430050168127}</t>
+    <t>{749.0: 0.930835889162391, 298.0: 0.06820126938743354, 297.0: 0.0009628414501755321}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2233,7 +2230,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857146}</t>
+    <t>{770.0: 0.9801712483100498, 992.0: 0.019828751689950425}</t>
   </si>
   <si>
     <t>{772.0: 0.9989726027397258, 493.0: 0.0010273972602739725}</t>
@@ -2242,19 +2239,19 @@
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9672057684561622, 171.0: 0.019059889584317067, 184.0: 0.0024755766225205873, 593.0: 0.001501688270279527, 420.0: 0.0019577948163881673, 212.0: 3.2211168417047834e-07, 227.0: 0.007779944579605976, 297.0: 1.4073705824178683e-06, 844.0: 1.760818845978893e-05}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523233, 81.0: 0.00034908768464843635, 172.0: 5.137840003002333e-07, 435.0: 0.0007224687790277634}</t>
+    <t>{778.0: 0.9677527079530817, 171.0: 0.01856944952442231, 184.0: 0.0024577179174878542, 593.0: 0.001463047538287819, 420.0: 0.0019577948163881673, 212.0: 3.2211168417047834e-07, 227.0: 0.0077799589405302795, 297.0: 1.3930096581074814e-06, 844.0: 1.760818845978893e-05}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523233, 81.0: 0.0003490872648216672, 172.0: 5.142038270695587e-07, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8290401866880289, 500.0: 0.17095484553817908, 277.0: 4.967773791507788e-06}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8293916229455558, 500.0: 0.1706034092806525, 277.0: 4.967773791507788e-06}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -2266,13 +2263,13 @@
     <t>{834.0: 0.9681697612732096, 210.0: 0.03162121602224349, 82.0: 4.572371661964563e-05, 788.0: 0.0001632989879273059}</t>
   </si>
   <si>
-    <t>{835.0: 0.9830399431369468, 836.0: 0.011920702428051403, 756.0: 0.005039354435002382}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7658725631537633, 536.0: 0.1115397282783606, 486.0: 0.07230418676237821, 980.0: 0.01844485800684812, 2.0: 0.014271143668772837, 840.0: 0.016429609884430787, 303.0: 0.001135289338930724, 144.0: 2.620906515422988e-06}</t>
+    <t>{835.0: 0.9827025729172753, 836.0: 0.012258072647722114, 756.0: 0.005039354435002382}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952598001, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7658725631537633, 536.0: 0.1115397282783606, 486.0: 0.07230418676237821, 980.0: 0.01844485800684812, 2.0: 0.014271143668772837, 840.0: 0.016429609884430787, 303.0: 0.0011352782248321624, 144.0: 2.632020613984921e-06}</t>
   </si>
   <si>
     <t>{838.0: 0.9948208890807074, 423.0: 0.005179110919292188}</t>
@@ -2302,25 +2299,25 @@
     <t>{851.0: 0.3205052339930986, 7.0: 0.5642747332529261, 229.0: 0.1152200327539754}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290925, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8162896283555889, 202.0: 0.060726257971677966, 680.0: 0.0019916987452363753, 477.0: 0.10462810023960326, 307.0: 8.491150244668037e-05, 207.0: 0.004399820531246505, 481.0: 9.553229021684541e-06, 574.0: 0.011794902656664424, 906.0: 7.512676851378614e-05}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455603, 976.0: 0.002654440154440155}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9928112252580561, 695.0: 0.007188774741944105}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9504391775847686, 107.0: 0.0493398958515847, 543.0: 4.0413552453432746e-05, 505.0: 0.00018051301119324025}</t>
+    <t>{852.0: 0.9898358092259585, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8162896283555889, 202.0: 0.060726257971677966, 680.0: 0.0019916987452363753, 477.0: 0.10476413795959924, 307.0: 8.491150244668037e-05, 207.0: 0.0042637828112505214, 481.0: 9.553229021684541e-06, 574.0: 0.011794902656664424, 906.0: 7.512676851378614e-05}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178301, 976.0: 0.002664728682170542}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9927417586919552, 695.0: 0.007258241308044793}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9504391775847686, 107.0: 0.04934015873067373, 543.0: 4.015067336439732e-05, 505.0: 0.00018051301119324025}</t>
   </si>
   <si>
     <t>{886.0: 0.990260452279924, 531.0: 0.009534025984806517, 262.0: 0.00019460907675969045, 442.0: 1.0912658509889185e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9795332994541676, 619.0: 0.0005450294872812934, 861.0: 1.1965608109839382e-05, 267.0: 0.01990970545044116}</t>
+    <t>{887.0: 0.9795332994541676, 619.0: 0.0005449953437284046, 861.0: 1.1999751662728067e-05, 267.0: 0.01990970545044116}</t>
   </si>
   <si>
     <t>{889.0: 0.9590857191621839, 565.0: 0.012464778704103075, 494.0: 0.02844950213371266}</t>
@@ -2335,7 +2332,7 @@
     <t>{895.0: 0.8122339801600194, 209.0: 0.02237940402052349, 896.0: 0.0980536933830033, 400.0: 0.00084448156980577, 432.0: 0.0009383128553397442, 629.0: 0.015257885204948654, 788.0: 0.05029224280635964}</t>
   </si>
   <si>
-    <t>{905.0: 0.9155765224746392, 499.0: 0.06135992033795437, 270.0: 1.585958775157078e-05, 479.0: 1.984712730947427e-07, 942.0: 4.493689202145121e-09, 769.0: 0.023047494634692543}</t>
+    <t>{905.0: 0.9155765224746392, 499.0: 0.06135992033795437, 270.0: 1.585958775157078e-05, 479.0: 1.983824984256506e-07, 942.0: 4.582463871237359e-09, 769.0: 0.023047494634692543}</t>
   </si>
   <si>
     <t>{906.0: 0.9548528279401363, 477.0: 0.037800982895492344, 202.0: 0.001492242297122392, 307.0: 0.0003443049939703535, 680.0: 0.00548082869511441, 481.0: 2.8813178163827512e-05}</t>
@@ -2347,10 +2344,10 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675542, 687.0: 0.0049774716761021975, 174.0: 1.3999800095412306e-05, 502.0: 2.0905624831377265e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.835969941945097, 490.0: 0.007128277859003354, 225.0: 0.14948473064177767, 779.0: 0.004732401444931624, 493.0: 0.0005468692627188274, 619.0: 5.2656805505097375e-05, 253.0: 0.0020851220409665154}</t>
+    <t>{911.0: 0.9950083194675542, 687.0: 0.0049773524584954265, 174.0: 1.41172636422495e-05, 502.0: 2.1081030824663273e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.8359624036887228, 490.0: 0.007135819414080591, 225.0: 0.14948473064177767, 779.0: 0.004732401444931624, 493.0: 0.0005468692627188274, 619.0: 5.265350680206264e-05, 253.0: 0.0020851220409665154}</t>
   </si>
   <si>
     <t>{915.0: 0.9760407900598979, 171.0: 0.023959209940101964}</t>
@@ -2362,7 +2359,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590238, 297.0: 0.005990275426909785, 695.0: 0.005083434427885525, 857.0: 3.165508618097213e-05}</t>
+    <t>{919.0: 0.9890254656143607, 297.0: 0.005859444871573599, 695.0: 0.0050833071596296815, 857.0: 3.178235443681668e-05}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304319, 686.0: 0.013476598069568387}</t>
@@ -2371,7 +2368,7 @@
     <t>{922.0: 0.9315741024854247, 887.0: 0.06842589751457501}</t>
   </si>
   <si>
-    <t>{925.0: 0.995852708307151, 263.0: 0.004141495125086512, 595.0: 5.796567762552023e-06}</t>
+    <t>{925.0: 0.995852708307151, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
   </si>
   <si>
     <t>{928.0: 0.9986957331842742, 922.0: 0.001215021188261221, 887.0: 8.924562746451e-05}</t>
@@ -2380,7 +2377,7 @@
     <t>{932.0: 0.9982325910215623, 108.0: 0.0017674089784376105}</t>
   </si>
   <si>
-    <t>{933.0: 0.7479421748247361, 249.0: 0.10310508213310642, 299.0: 0.03035169946579281, 702.0: 0.1186010435763644}</t>
+    <t>{933.0: 0.7483700066194048, 249.0: 0.10267725033843796, 299.0: 0.03035169946579281, 702.0: 0.1186010435763644}</t>
   </si>
   <si>
     <t>{934.0: 0.9935019726154561, 5.0: 0.006498027384543978}</t>
@@ -2395,13 +2392,13 @@
     <t>{937.0: 0.9949109414758269, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
-    <t>{940.0: 0.9864997747918502, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9864997747918502, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.10812454662003079, 848.0: 0.16133961771190689}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.1099318387297291, 848.0: 0.1855094754451809}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -2410,7 +2407,7 @@
     <t>{971.0: 0.9989698686582533, 152.0: 0.0010301313417460727}</t>
   </si>
   <si>
-    <t>{972.0: 0.9541375872382856, 615.0: 0.045862412761714856}</t>
+    <t>{972.0: 0.9537688442211059, 615.0: 0.046231155778894494}</t>
   </si>
   <si>
     <t>{973.0: 0.9777202072538861, 565.0: 0.022279792746113983}</t>
@@ -2422,7 +2419,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 0.9504155918601314, 489.0: 0.04917254413384411, 935.0: 0.0004118640060240265}</t>
+    <t>{978.0: 0.9504155918601314, 489.0: 0.04917437168691644, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978184, 561.0: 0.013490241102181402}</t>
@@ -4890,7 +4887,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>605</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4901,7 +4898,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4912,7 +4909,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4923,7 +4920,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4934,7 +4931,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4945,7 +4942,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4956,7 +4953,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4967,7 +4964,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5000,7 +4997,7 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5011,7 +5008,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5033,7 +5030,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5044,7 +5041,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5077,7 +5074,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5099,7 +5096,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5121,7 +5118,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5132,7 +5129,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5143,7 +5140,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5154,7 +5151,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5165,7 +5162,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5176,7 +5173,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5187,7 +5184,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5209,7 +5206,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5220,7 +5217,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5231,7 +5228,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5253,7 +5250,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5264,7 +5261,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5275,7 +5272,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5297,7 +5294,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5330,7 +5327,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5341,7 +5338,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5352,7 +5349,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5363,7 +5360,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5374,7 +5371,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5385,7 +5382,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5407,7 +5404,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5473,7 +5470,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5484,7 +5481,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5506,7 +5503,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5517,7 +5514,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5528,7 +5525,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5550,7 +5547,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5561,7 +5558,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5572,7 +5569,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5583,7 +5580,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5605,7 +5602,7 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5627,7 +5624,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5649,7 +5646,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5660,7 +5657,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5671,7 +5668,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5682,7 +5679,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5704,7 +5701,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5726,7 +5723,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5737,7 +5734,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5748,7 +5745,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5770,7 +5767,7 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5781,7 +5778,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5792,7 +5789,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5803,7 +5800,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5814,7 +5811,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5825,7 +5822,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5836,7 +5833,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5847,7 +5844,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5858,7 +5855,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5880,7 +5877,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5891,7 +5888,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5913,7 +5910,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5924,7 +5921,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5946,7 +5943,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5957,7 +5954,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5979,7 +5976,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6001,7 +5998,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6012,7 +6009,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6034,7 +6031,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6045,7 +6042,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6067,7 +6064,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6078,7 +6075,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6089,7 +6086,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6100,7 +6097,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6111,7 +6108,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6133,7 +6130,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6144,7 +6141,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6155,7 +6152,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6166,7 +6163,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6177,7 +6174,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6188,7 +6185,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6199,7 +6196,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6221,7 +6218,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6232,7 +6229,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6254,7 +6251,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6265,7 +6262,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6287,7 +6284,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6298,7 +6295,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6320,7 +6317,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6342,7 +6339,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6375,7 +6372,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6386,7 +6383,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6441,7 +6438,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6452,7 +6449,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6463,7 +6460,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6474,7 +6471,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6485,7 +6482,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6496,7 +6493,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6507,7 +6504,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6518,7 +6515,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6529,7 +6526,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6540,7 +6537,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6551,7 +6548,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6573,7 +6570,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6584,7 +6581,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6595,7 +6592,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6617,7 +6614,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6628,7 +6625,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6639,7 +6636,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6661,7 +6658,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6672,7 +6669,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6694,7 +6691,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6705,7 +6702,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6716,7 +6713,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6749,7 +6746,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6760,7 +6757,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6782,7 +6779,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6793,7 +6790,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6804,7 +6801,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6815,7 +6812,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6826,7 +6823,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6837,7 +6834,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6848,7 +6845,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6892,7 +6889,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6936,7 +6933,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6947,7 +6944,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6958,7 +6955,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6969,7 +6966,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7002,7 +6999,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7035,7 +7032,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7046,7 +7043,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7068,7 +7065,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7079,7 +7076,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7123,7 +7120,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7134,7 +7131,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7145,7 +7142,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7167,7 +7164,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7178,7 +7175,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7189,7 +7186,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7211,7 +7208,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7222,7 +7219,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7233,7 +7230,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7244,7 +7241,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7255,7 +7252,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7266,7 +7263,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7277,7 +7274,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7288,7 +7285,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7299,7 +7296,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7321,7 +7318,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7332,7 +7329,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7343,7 +7340,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7354,7 +7351,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7365,7 +7362,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7376,7 +7373,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7387,7 +7384,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7398,7 +7395,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7431,7 +7428,7 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7442,7 +7439,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7497,7 +7494,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7508,7 +7505,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7519,7 +7516,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7563,7 +7560,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7574,7 +7571,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7585,7 +7582,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7596,7 +7593,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7607,7 +7604,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7618,7 +7615,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7629,7 +7626,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7640,7 +7637,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7651,7 +7648,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7673,7 +7670,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7695,7 +7692,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7706,7 +7703,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7717,7 +7714,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7739,7 +7736,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7750,7 +7747,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7783,7 +7780,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7816,7 +7813,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7838,7 +7835,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7849,7 +7846,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7860,7 +7857,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7871,7 +7868,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7882,7 +7879,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7893,7 +7890,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7904,7 +7901,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7926,7 +7923,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7937,7 +7934,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7948,7 +7945,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7959,7 +7956,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7970,7 +7967,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7981,7 +7978,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7992,7 +7989,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8003,7 +8000,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8025,7 +8022,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8036,7 +8033,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8047,7 +8044,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8091,7 +8088,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
